--- a/CVS.xlsx
+++ b/CVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B1668-E1F9-472E-B584-E1338AB80242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC631B41-589D-4A7C-82C9-577D3B6C43EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23490" yWindow="2505" windowWidth="25170" windowHeight="16710" activeTab="1" xr2:uid="{C3DD8227-CA81-4868-8E84-B8409A29F51A}"/>
+    <workbookView xWindow="60050" yWindow="6340" windowWidth="16100" windowHeight="12910" activeTab="1" xr2:uid="{C3DD8227-CA81-4868-8E84-B8409A29F51A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>Price</t>
   </si>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t>ESOP</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -402,9 +438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,9 +740,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +750,7 @@
         <v>100.96</v>
       </c>
     </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>2</v>
       </c>
@@ -734,7 +770,7 @@
         <v>132543.19635472001</v>
       </c>
     </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -746,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>4</v>
       </c>
@@ -758,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>5</v>
       </c>
@@ -774,28 +810,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E706809C-0BA0-4065-9731-90AB121E7908}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -832,8 +868,44 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -858,7 +930,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -883,7 +955,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -908,7 +980,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -933,7 +1005,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -962,7 +1034,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -987,7 +1059,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1084,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1109,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1138,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1167,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1124,7 +1196,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1225,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1254,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1283,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1304,7 @@
         <v>2.233913701741105</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1329,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1352,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +1365,7 @@
         <v>0.83764420797555705</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" ref="K21:L21" si="7">K9/K4</f>
+        <f t="shared" ref="K21" si="7">K9/K4</f>
         <v>0.82987379224261482</v>
       </c>
       <c r="L21" s="9">
@@ -1301,7 +1373,7 @@
         <v>0.82812793979303856</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1314,7 +1386,7 @@
         <v>-18699</v>
       </c>
     </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1409,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1430,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1451,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1472,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1493,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
@@ -1442,7 +1514,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1465,7 +1537,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
@@ -1486,7 +1558,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1579,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1602,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1551,7 +1623,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
@@ -1572,7 +1644,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1593,7 +1665,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1614,7 +1686,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1707,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1730,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1753,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1776,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1797,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1746,7 +1818,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
@@ -1767,7 +1839,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
@@ -1788,7 +1860,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
@@ -1811,7 +1883,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
@@ -1830,7 +1902,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>59</v>
       </c>
@@ -1849,7 +1921,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
@@ -1868,7 +1940,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>61</v>
       </c>
@@ -1887,7 +1959,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>30</v>
       </c>
@@ -1907,7 +1979,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>31</v>
       </c>
@@ -1926,7 +1998,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
@@ -1946,7 +2018,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
@@ -1966,7 +2038,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>40</v>
       </c>
@@ -1985,7 +2057,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>64</v>
       </c>
@@ -2004,7 +2076,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>65</v>
       </c>
@@ -2023,7 +2095,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -2043,7 +2115,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2057,7 +2129,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2148,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -2095,7 +2167,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
@@ -2114,7 +2186,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>71</v>
       </c>
@@ -2134,7 +2206,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2154,7 +2226,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2168,7 +2240,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
@@ -2188,7 +2260,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
